--- a/documentation/rajapinta.xlsx
+++ b/documentation/rajapinta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannu\Documents\GitHub\backend\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>POST</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>JSON, katso esimerkki*.</t>
+  </si>
+  <si>
+    <t>33 &lt;=</t>
+  </si>
+  <si>
+    <t>88:80       (pointsTotal:pointsUnused)</t>
   </si>
 </sst>
 </file>
@@ -666,36 +672,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="61.44140625" customWidth="1"/>
     <col min="4" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="50.88671875" customWidth="1"/>
-    <col min="14" max="14" width="40.6640625" customWidth="1"/>
+    <col min="6" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="50.88671875" customWidth="1"/>
+    <col min="15" max="15" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -703,7 +709,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
@@ -720,13 +726,14 @@
         <v>19</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -744,11 +751,12 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -770,11 +778,14 @@
       <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -790,11 +801,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -814,11 +826,12 @@
         <v>12</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -834,9 +847,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
@@ -852,17 +866,19 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,10 @@
       <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
@@ -884,34 +901,49 @@
       <c r="H17" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="13" t="s">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="6:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19" t="s">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="6:9" ht="231" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="17" t="s">
+    <row r="21" spans="6:10" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
